--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +184,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,27 +322,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -378,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,7 +659,7 @@
   <dimension ref="C3:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -650,36 +684,38 @@
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>31</v>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="5"/>
@@ -688,7 +724,7 @@
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="5"/>
@@ -697,7 +733,7 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5"/>
@@ -706,7 +742,7 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="5"/>
@@ -715,10 +751,10 @@
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -726,19 +762,21 @@
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -746,7 +784,7 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5"/>
@@ -755,7 +793,7 @@
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5"/>
@@ -764,7 +802,7 @@
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5"/>
@@ -773,7 +811,7 @@
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="5"/>
@@ -782,7 +820,7 @@
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="5"/>
@@ -791,7 +829,7 @@
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="5"/>
@@ -800,7 +838,7 @@
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="5"/>
@@ -809,10 +847,10 @@
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -856,10 +894,10 @@
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>31</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +659,7 @@
   <dimension ref="C3:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信件管理 增加 公司名称字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信件管理 增加 审核人字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E29"/>
+  <dimension ref="C3:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,13 +671,13 @@
   <sheetData>
     <row r="3" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -696,19 +696,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -725,16 +725,18 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -743,58 +745,60 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -803,25 +807,29 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -830,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -838,95 +846,92 @@
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -780,7 +788,9 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="4" t="s">
@@ -840,7 +850,9 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="4" t="s">
@@ -850,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -810,7 +810,9 @@
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="4" t="s">
@@ -841,7 +843,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="4" t="s">
@@ -872,7 +876,9 @@
       <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="4" t="s">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +667,7 @@
   <dimension ref="C3:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -746,7 +746,9 @@
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="4" t="s">

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>年检预警加查询条件：名称、业务员、年检客服</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +667,7 @@
   <dimension ref="C3:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -726,7 +726,9 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="4" t="s">
@@ -931,7 +933,9 @@
       <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="4" t="s">
